--- a/backend/scripts/sample_leads.xlsx
+++ b/backend/scripts/sample_leads.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,33 +407,27 @@
         <v>Name</v>
       </c>
       <c r="B1" t="str">
+        <v>Contact</v>
+      </c>
+      <c r="C1" t="str">
         <v>Email</v>
       </c>
-      <c r="C1" t="str">
-        <v>Phone</v>
-      </c>
       <c r="D1" t="str">
-        <v>Contact</v>
+        <v>City</v>
       </c>
       <c r="E1" t="str">
-        <v>City</v>
+        <v>University</v>
       </c>
       <c r="F1" t="str">
-        <v>University</v>
+        <v>Course</v>
       </c>
       <c r="G1" t="str">
-        <v>Course</v>
+        <v>Profession</v>
       </c>
       <c r="H1" t="str">
-        <v>Profession</v>
+        <v>Status</v>
       </c>
       <c r="I1" t="str">
-        <v>Company</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="K1" t="str">
         <v>Notes</v>
       </c>
     </row>
@@ -442,33 +436,27 @@
         <v>Alice Johnson</v>
       </c>
       <c r="B2" t="str">
+        <v>+1-202-555-0112</v>
+      </c>
+      <c r="C2" t="str">
         <v>alice@example.com</v>
       </c>
-      <c r="C2" t="str">
-        <v>+1-202-555-0111</v>
-      </c>
       <c r="D2" t="str">
-        <v>+1-202-555-0112</v>
+        <v>New York</v>
       </c>
       <c r="E2" t="str">
-        <v>New York</v>
+        <v>NYU</v>
       </c>
       <c r="F2" t="str">
-        <v>NYU</v>
+        <v>MBA</v>
       </c>
       <c r="G2" t="str">
-        <v>MBA</v>
+        <v>Marketing Manager</v>
       </c>
       <c r="H2" t="str">
-        <v>Marketing Manager</v>
+        <v>Fresh</v>
       </c>
       <c r="I2" t="str">
-        <v>Alpha Corp</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Fresh</v>
-      </c>
-      <c r="K2" t="str">
         <v>Initial inquiry</v>
       </c>
     </row>
@@ -477,33 +465,27 @@
         <v>Bob Singh</v>
       </c>
       <c r="B3" t="str">
+        <v>+1-202-555-0223</v>
+      </c>
+      <c r="C3" t="str">
         <v>bob@example.com</v>
       </c>
-      <c r="C3" t="str">
-        <v>+1-202-555-0222</v>
-      </c>
       <c r="D3" t="str">
-        <v>+1-202-555-0223</v>
+        <v>San Francisco</v>
       </c>
       <c r="E3" t="str">
-        <v>San Francisco</v>
+        <v>Stanford</v>
       </c>
       <c r="F3" t="str">
-        <v>Stanford</v>
+        <v>Data Science</v>
       </c>
       <c r="G3" t="str">
-        <v>Data Science</v>
+        <v>Data Analyst</v>
       </c>
       <c r="H3" t="str">
-        <v>Data Analyst</v>
+        <v>Follow up</v>
       </c>
       <c r="I3" t="str">
-        <v>Beta LLC</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Follow up</v>
-      </c>
-      <c r="K3" t="str">
         <v>Interested in program</v>
       </c>
     </row>
@@ -512,33 +494,27 @@
         <v>Carla Mendes</v>
       </c>
       <c r="B4" t="str">
+        <v>+1-202-555-0334</v>
+      </c>
+      <c r="C4" t="str">
         <v>carla@example.com</v>
       </c>
-      <c r="C4" t="str">
-        <v>+1-202-555-0333</v>
-      </c>
       <c r="D4" t="str">
-        <v>+1-202-555-0334</v>
+        <v>Boston</v>
       </c>
       <c r="E4" t="str">
-        <v>Boston</v>
+        <v>MIT</v>
       </c>
       <c r="F4" t="str">
-        <v>MIT</v>
+        <v>Engineering</v>
       </c>
       <c r="G4" t="str">
-        <v>Engineering</v>
+        <v>Software Engineer</v>
       </c>
       <c r="H4" t="str">
-        <v>Software Engineer</v>
+        <v>Counselled</v>
       </c>
       <c r="I4" t="str">
-        <v>Gamma Industries</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Counselled</v>
-      </c>
-      <c r="K4" t="str">
         <v>Discussed options</v>
       </c>
     </row>
@@ -547,33 +523,27 @@
         <v>David Osei</v>
       </c>
       <c r="B5" t="str">
+        <v>+1-202-555-0445</v>
+      </c>
+      <c r="C5" t="str">
         <v>david@example.com</v>
       </c>
-      <c r="C5" t="str">
-        <v>+1-202-555-0444</v>
-      </c>
       <c r="D5" t="str">
-        <v>+1-202-555-0445</v>
+        <v>Chicago</v>
       </c>
       <c r="E5" t="str">
-        <v>Chicago</v>
+        <v>Northwestern</v>
       </c>
       <c r="F5" t="str">
-        <v>Northwestern</v>
+        <v>Finance</v>
       </c>
       <c r="G5" t="str">
-        <v>Finance</v>
+        <v>Financial Analyst</v>
       </c>
       <c r="H5" t="str">
-        <v>Financial Analyst</v>
+        <v>Request call back</v>
       </c>
       <c r="I5" t="str">
-        <v>Delta Partners</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Request call back</v>
-      </c>
-      <c r="K5" t="str">
         <v>Follow-up needed</v>
       </c>
     </row>
@@ -582,33 +552,27 @@
         <v>Emma Li</v>
       </c>
       <c r="B6" t="str">
+        <v>+1-202-555-0556</v>
+      </c>
+      <c r="C6" t="str">
         <v>emma@example.com</v>
       </c>
-      <c r="C6" t="str">
-        <v>+1-202-555-0555</v>
-      </c>
       <c r="D6" t="str">
-        <v>+1-202-555-0556</v>
+        <v>Seattle</v>
       </c>
       <c r="E6" t="str">
-        <v>Seattle</v>
+        <v>UW</v>
       </c>
       <c r="F6" t="str">
-        <v>UW</v>
+        <v>Computer Science</v>
       </c>
       <c r="G6" t="str">
-        <v>Computer Science</v>
+        <v>Developer</v>
       </c>
       <c r="H6" t="str">
-        <v>Developer</v>
+        <v>Interested in next batch</v>
       </c>
       <c r="I6" t="str">
-        <v>Epsilon Tech</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Interested in next batch</v>
-      </c>
-      <c r="K6" t="str">
         <v>Waiting for schedule</v>
       </c>
     </row>
@@ -617,33 +581,27 @@
         <v>Fahad Khan</v>
       </c>
       <c r="B7" t="str">
+        <v>+1-202-555-0667</v>
+      </c>
+      <c r="C7" t="str">
         <v>fahad@example.com</v>
       </c>
-      <c r="C7" t="str">
-        <v>+1-202-555-0666</v>
-      </c>
       <c r="D7" t="str">
-        <v>+1-202-555-0667</v>
+        <v>Austin</v>
       </c>
       <c r="E7" t="str">
-        <v>Austin</v>
+        <v>UT Austin</v>
       </c>
       <c r="F7" t="str">
-        <v>UT Austin</v>
+        <v>Business</v>
       </c>
       <c r="G7" t="str">
-        <v>Business</v>
+        <v>Business Analyst</v>
       </c>
       <c r="H7" t="str">
-        <v>Business Analyst</v>
+        <v>Registration fees paid</v>
       </c>
       <c r="I7" t="str">
-        <v>Zeta Group</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Registration fees paid</v>
-      </c>
-      <c r="K7" t="str">
         <v>Payment received</v>
       </c>
     </row>
@@ -652,33 +610,27 @@
         <v>Grace Park</v>
       </c>
       <c r="B8" t="str">
+        <v>+1-202-555-0778</v>
+      </c>
+      <c r="C8" t="str">
         <v>grace@example.com</v>
       </c>
-      <c r="C8" t="str">
-        <v>+1-202-555-0777</v>
-      </c>
       <c r="D8" t="str">
-        <v>+1-202-555-0778</v>
+        <v>Los Angeles</v>
       </c>
       <c r="E8" t="str">
-        <v>Los Angeles</v>
+        <v>UCLA</v>
       </c>
       <c r="F8" t="str">
-        <v>UCLA</v>
+        <v>Marketing</v>
       </c>
       <c r="G8" t="str">
-        <v>Marketing</v>
+        <v>Marketing Executive</v>
       </c>
       <c r="H8" t="str">
-        <v>Marketing Executive</v>
+        <v>Enrolled</v>
       </c>
       <c r="I8" t="str">
-        <v>Eta Solutions</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Enrolled</v>
-      </c>
-      <c r="K8" t="str">
         <v>Successfully enrolled</v>
       </c>
     </row>
@@ -687,33 +639,27 @@
         <v>Henry Adams</v>
       </c>
       <c r="B9" t="str">
+        <v>+1-202-555-0889</v>
+      </c>
+      <c r="C9" t="str">
         <v>henry@example.com</v>
       </c>
-      <c r="C9" t="str">
-        <v>+1-202-555-0888</v>
-      </c>
       <c r="D9" t="str">
-        <v>+1-202-555-0889</v>
+        <v>Miami</v>
       </c>
       <c r="E9" t="str">
-        <v>Miami</v>
+        <v>FIU</v>
       </c>
       <c r="F9" t="str">
-        <v>FIU</v>
+        <v>IT</v>
       </c>
       <c r="G9" t="str">
-        <v>IT</v>
+        <v>IT Consultant</v>
       </c>
       <c r="H9" t="str">
-        <v>IT Consultant</v>
+        <v>Buffer fresh</v>
       </c>
       <c r="I9" t="str">
-        <v>Theta Ventures</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Buffer fresh</v>
-      </c>
-      <c r="K9" t="str">
         <v>Pending response</v>
       </c>
     </row>
@@ -722,33 +668,27 @@
         <v>Isabella Cruz</v>
       </c>
       <c r="B10" t="str">
+        <v>+1-202-555-1000</v>
+      </c>
+      <c r="C10" t="str">
         <v>isabella@example.com</v>
       </c>
-      <c r="C10" t="str">
-        <v>+1-202-555-0999</v>
-      </c>
       <c r="D10" t="str">
-        <v>+1-202-555-1000</v>
+        <v>Denver</v>
       </c>
       <c r="E10" t="str">
-        <v>Denver</v>
+        <v>CU Boulder</v>
       </c>
       <c r="F10" t="str">
-        <v>CU Boulder</v>
+        <v>Design</v>
       </c>
       <c r="G10" t="str">
-        <v>Design</v>
+        <v>Designer</v>
       </c>
       <c r="H10" t="str">
-        <v>Designer</v>
+        <v>Did not pick</v>
       </c>
       <c r="I10" t="str">
-        <v>Iota Labs</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Did not pick</v>
-      </c>
-      <c r="K10" t="str">
         <v>No answer</v>
       </c>
     </row>
@@ -757,33 +697,27 @@
         <v>Jack Miller</v>
       </c>
       <c r="B11" t="str">
+        <v>+1-202-555-1001</v>
+      </c>
+      <c r="C11" t="str">
         <v>jack@example.com</v>
       </c>
-      <c r="C11" t="str">
-        <v>+1-202-555-1000</v>
-      </c>
       <c r="D11" t="str">
-        <v>+1-202-555-1001</v>
+        <v>Portland</v>
       </c>
       <c r="E11" t="str">
-        <v>Portland</v>
+        <v>PSU</v>
       </c>
       <c r="F11" t="str">
-        <v>PSU</v>
+        <v>Management</v>
       </c>
       <c r="G11" t="str">
-        <v>Management</v>
+        <v>Manager</v>
       </c>
       <c r="H11" t="str">
-        <v>Manager</v>
+        <v>Junk/not interested</v>
       </c>
       <c r="I11" t="str">
-        <v>Kappa Systems</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Junk/not interested</v>
-      </c>
-      <c r="K11" t="str">
         <v>Not interested</v>
       </c>
     </row>
@@ -792,33 +726,27 @@
         <v>Karen Lopez</v>
       </c>
       <c r="B12" t="str">
+        <v>+1-202-555-1112</v>
+      </c>
+      <c r="C12" t="str">
         <v>karen@example.com</v>
       </c>
-      <c r="C12" t="str">
-        <v>+1-202-555-1111</v>
-      </c>
       <c r="D12" t="str">
-        <v>+1-202-555-1112</v>
+        <v>Phoenix</v>
       </c>
       <c r="E12" t="str">
-        <v>Phoenix</v>
+        <v>ASU</v>
       </c>
       <c r="F12" t="str">
-        <v>ASU</v>
+        <v>Economics</v>
       </c>
       <c r="G12" t="str">
-        <v>Economics</v>
+        <v>Economist</v>
       </c>
       <c r="H12" t="str">
-        <v>Economist</v>
+        <v>Fresh</v>
       </c>
       <c r="I12" t="str">
-        <v>Lambda Consulting</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Fresh</v>
-      </c>
-      <c r="K12" t="str">
         <v>New inquiry</v>
       </c>
     </row>
@@ -827,33 +755,27 @@
         <v>Leo Brown</v>
       </c>
       <c r="B13" t="str">
+        <v>+1-202-555-1223</v>
+      </c>
+      <c r="C13" t="str">
         <v>leo@example.com</v>
       </c>
-      <c r="C13" t="str">
-        <v>+1-202-555-1222</v>
-      </c>
       <c r="D13" t="str">
-        <v>+1-202-555-1223</v>
+        <v>Atlanta</v>
       </c>
       <c r="E13" t="str">
-        <v>Atlanta</v>
+        <v>Georgia Tech</v>
       </c>
       <c r="F13" t="str">
-        <v>Georgia Tech</v>
+        <v>Engineering</v>
       </c>
       <c r="G13" t="str">
-        <v>Engineering</v>
+        <v>Engineer</v>
       </c>
       <c r="H13" t="str">
-        <v>Engineer</v>
+        <v>Counselled</v>
       </c>
       <c r="I13" t="str">
-        <v>Mu Enterprises</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Counselled</v>
-      </c>
-      <c r="K13" t="str">
         <v>Consultation completed</v>
       </c>
     </row>
@@ -862,33 +784,27 @@
         <v>Maya Patel</v>
       </c>
       <c r="B14" t="str">
+        <v>+1-202-555-1334</v>
+      </c>
+      <c r="C14" t="str">
         <v>maya@example.com</v>
       </c>
-      <c r="C14" t="str">
-        <v>+1-202-555-1333</v>
-      </c>
       <c r="D14" t="str">
-        <v>+1-202-555-1334</v>
+        <v>Dallas</v>
       </c>
       <c r="E14" t="str">
-        <v>Dallas</v>
+        <v>SMU</v>
       </c>
       <c r="F14" t="str">
-        <v>SMU</v>
+        <v>MBA</v>
       </c>
       <c r="G14" t="str">
-        <v>MBA</v>
+        <v>Business Owner</v>
       </c>
       <c r="H14" t="str">
-        <v>Business Owner</v>
+        <v>Enrolled</v>
       </c>
       <c r="I14" t="str">
-        <v>Nu Technologies</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Enrolled</v>
-      </c>
-      <c r="K14" t="str">
         <v>Enrolled successfully</v>
       </c>
     </row>
@@ -897,33 +813,27 @@
         <v>Noah Kim</v>
       </c>
       <c r="B15" t="str">
+        <v>+1-202-555-1445</v>
+      </c>
+      <c r="C15" t="str">
         <v>noah@example.com</v>
       </c>
-      <c r="C15" t="str">
-        <v>+1-202-555-1444</v>
-      </c>
       <c r="D15" t="str">
-        <v>+1-202-555-1445</v>
+        <v>Philadelphia</v>
       </c>
       <c r="E15" t="str">
-        <v>Philadelphia</v>
+        <v>UPenn</v>
       </c>
       <c r="F15" t="str">
-        <v>UPenn</v>
+        <v>Finance</v>
       </c>
       <c r="G15" t="str">
-        <v>Finance</v>
+        <v>Accountant</v>
       </c>
       <c r="H15" t="str">
-        <v>Accountant</v>
+        <v>Follow up</v>
       </c>
       <c r="I15" t="str">
-        <v>Xi Innovations</v>
-      </c>
-      <c r="J15" t="str">
-        <v>Follow up</v>
-      </c>
-      <c r="K15" t="str">
         <v>Needs follow up</v>
       </c>
     </row>
@@ -932,39 +842,1744 @@
         <v>Olivia Chen</v>
       </c>
       <c r="B16" t="str">
+        <v>+1-202-555-1556</v>
+      </c>
+      <c r="C16" t="str">
         <v>olivia@example.com</v>
       </c>
-      <c r="C16" t="str">
-        <v>+1-202-555-1555</v>
-      </c>
       <c r="D16" t="str">
-        <v>+1-202-555-1556</v>
+        <v>San Diego</v>
       </c>
       <c r="E16" t="str">
-        <v>San Diego</v>
+        <v>UCSD</v>
       </c>
       <c r="F16" t="str">
-        <v>UCSD</v>
+        <v>Biology</v>
       </c>
       <c r="G16" t="str">
+        <v>Researcher</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I16" t="str">
+        <v>First contact</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Paul Rivera</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+1-202-555-2001</v>
+      </c>
+      <c r="C17" t="str">
+        <v>paul@example.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Rice</v>
+      </c>
+      <c r="F17" t="str">
+        <v>MBA</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Consultant</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I17" t="str">
+        <v>New inquiry</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Sophia Turner</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+1-202-555-2002</v>
+      </c>
+      <c r="C18" t="str">
+        <v>sophia@example.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Las Vegas</v>
+      </c>
+      <c r="E18" t="str">
+        <v>UNLV</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Hospitality</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Hotel Manager</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Requested brochure</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Marcus Green</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+1-202-555-2003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>marcus@example.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Detroit</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Wayne State</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Mechanical Engineer</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Discussed career path</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Natalie Brooks</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+1-202-555-2004</v>
+      </c>
+      <c r="C20" t="str">
+        <v>natalie@example.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Charlotte</v>
+      </c>
+      <c r="E20" t="str">
+        <v>UNC Charlotte</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Banker</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Request call back</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Asked for details</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Omar Hassan</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+1-202-555-2005</v>
+      </c>
+      <c r="C21" t="str">
+        <v>omar@example.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Orlando</v>
+      </c>
+      <c r="E21" t="str">
+        <v>UCF</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Software Developer</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Interested in next batch</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Waiting for schedule</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Priya Sharma</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+1-202-555-2006</v>
+      </c>
+      <c r="C22" t="str">
+        <v>priya@example.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SJSU</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Business</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Entrepreneur</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Registration fees paid</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Payment confirmed</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Quentin Blake</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+1-202-555-2007</v>
+      </c>
+      <c r="C23" t="str">
+        <v>quentin@example.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Minneapolis</v>
+      </c>
+      <c r="E23" t="str">
+        <v>UMN</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Brand Strategist</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Joined program</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Rosa Martinez</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+1-202-555-2008</v>
+      </c>
+      <c r="C24" t="str">
+        <v>rosa@example.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Tampa</v>
+      </c>
+      <c r="E24" t="str">
+        <v>USF</v>
+      </c>
+      <c r="F24" t="str">
         <v>Biology</v>
       </c>
-      <c r="H16" t="str">
+      <c r="G24" t="str">
+        <v>Lab Technician</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Pending confirmation</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Samuel Wright</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+1-202-555-2009</v>
+      </c>
+      <c r="C25" t="str">
+        <v>samuel@example.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Case Western</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Law</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Legal Assistant</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Did not pick</v>
+      </c>
+      <c r="I25" t="str">
+        <v>No response</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Tina Zhang</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+1-202-555-2010</v>
+      </c>
+      <c r="C26" t="str">
+        <v>tina@example.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Salt Lake City</v>
+      </c>
+      <c r="E26" t="str">
+        <v>U of Utah</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Design</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Graphic Designer</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Junk/not interested</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Not interested</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Usha Nair</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+1-202-555-2011</v>
+      </c>
+      <c r="C27" t="str">
+        <v>usha@example.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Baltimore</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Johns Hopkins</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Medicine</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Initial inquiry</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Victor Hugo</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+1-202-555-2012</v>
+      </c>
+      <c r="C28" t="str">
+        <v>victor@example.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Kansas City</v>
+      </c>
+      <c r="E28" t="str">
+        <v>UMKC</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Economics</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Economist</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Consultation done</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Wendy Scott</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+1-202-555-2013</v>
+      </c>
+      <c r="C29" t="str">
+        <v>wendy@example.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="E29" t="str">
+        <v>OSU</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Therapist</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Joined successfully</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Xavier Lopez</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+1-202-555-2014</v>
+      </c>
+      <c r="C30" t="str">
+        <v>xavier@example.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Indianapolis</v>
+      </c>
+      <c r="E30" t="str">
+        <v>IUPUI</v>
+      </c>
+      <c r="F30" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G30" t="str">
+        <v>IT Specialist</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Needs more info</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Yara Ali</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+1-202-555-2015</v>
+      </c>
+      <c r="C31" t="str">
+        <v>yara@example.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>St. Louis</v>
+      </c>
+      <c r="E31" t="str">
+        <v>WashU</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Architecture</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Architect</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I31" t="str">
+        <v>First contact</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Zane Carter</v>
+      </c>
+      <c r="B32" t="str">
+        <v>+1-202-555-2016</v>
+      </c>
+      <c r="C32" t="str">
+        <v>zane@example.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Milwaukee</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Marquette</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Civil Engineer</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Request call back</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Asked for callback</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Amira Khan</v>
+      </c>
+      <c r="B33" t="str">
+        <v>+1-202-555-2017</v>
+      </c>
+      <c r="C33" t="str">
+        <v>amira@example.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Raleigh</v>
+      </c>
+      <c r="E33" t="str">
+        <v>NC State</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Data Science</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Data Scientist</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Interested in next batch</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Waiting for schedule</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Brian Lee</v>
+      </c>
+      <c r="B34" t="str">
+        <v>+1-202-555-2018</v>
+      </c>
+      <c r="C34" t="str">
+        <v>brian@example.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Sacramento</v>
+      </c>
+      <c r="E34" t="str">
+        <v>CSUS</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Business</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Business Consultant</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Registration fees paid</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Payment received</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Clara Gomez</v>
+      </c>
+      <c r="B35" t="str">
+        <v>+1-202-555-2019</v>
+      </c>
+      <c r="C35" t="str">
+        <v>clara@example.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="E35" t="str">
+        <v>UTSA</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Marketing Specialist</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Enrolled successfully</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Derek White</v>
+      </c>
+      <c r="B36" t="str">
+        <v>+1-202-555-2020</v>
+      </c>
+      <c r="C36" t="str">
+        <v>derek@example.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Nashville</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Vanderbilt</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Music</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Musician</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Pending response</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Elena Petrova</v>
+      </c>
+      <c r="B37" t="str">
+        <v>+1-202-555-2021</v>
+      </c>
+      <c r="C37" t="str">
+        <v>elena@example.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Pittsburgh</v>
+      </c>
+      <c r="E37" t="str">
+        <v>CMU</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Robotics</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Robotics Engineer</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Discussed options</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Felix Brown</v>
+      </c>
+      <c r="B38" t="str">
+        <v>+1-202-555-2022</v>
+      </c>
+      <c r="C38" t="str">
+        <v>felix@example.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Cincinnati</v>
+      </c>
+      <c r="E38" t="str">
+        <v>UC</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Chemist</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Interested in program</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Gina Torres</v>
+      </c>
+      <c r="B39" t="str">
+        <v>+1-202-555-2023</v>
+      </c>
+      <c r="C39" t="str">
+        <v>gina@example.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Buffalo</v>
+      </c>
+      <c r="E39" t="str">
+        <v>UB</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Law</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Lawyer</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Initial inquiry</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Hector Ramirez</v>
+      </c>
+      <c r="B40" t="str">
+        <v>+1-202-555-2024</v>
+      </c>
+      <c r="C40" t="str">
+        <v>hector@example.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Richmond</v>
+      </c>
+      <c r="E40" t="str">
+        <v>VCU</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Financial Advisor</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Request call back</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Follow-up needed</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Ivy Chen</v>
+      </c>
+      <c r="B41" t="str">
+        <v>+1-202-555-2025</v>
+      </c>
+      <c r="C41" t="str">
+        <v>ivy@example.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Hartford</v>
+      </c>
+      <c r="E41" t="str">
+        <v>UConn</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Biology</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Research Assistant</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Interested in next batch</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Waiting for schedule</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>James Bond</v>
+      </c>
+      <c r="B42" t="str">
+        <v>+1-202-555-2026</v>
+      </c>
+      <c r="C42" t="str">
+        <v>james@example.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="E42" t="str">
+        <v>UAA</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Criminology</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Investigator</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Junk/not interested</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Not interested</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Kylie Morgan</v>
+      </c>
+      <c r="B43" t="str">
+        <v>+1-202-555-2027</v>
+      </c>
+      <c r="C43" t="str">
+        <v>kylie@example.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Boise</v>
+      </c>
+      <c r="E43" t="str">
+        <v>BSU</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Education</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Teacher</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I43" t="str">
+        <v>New inquiry</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Liam Davis</v>
+      </c>
+      <c r="B44" t="str">
+        <v>+1-202-555-2028</v>
+      </c>
+      <c r="C44" t="str">
+        <v>liam@example.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Madison</v>
+      </c>
+      <c r="E44" t="str">
+        <v>UW Madison</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Economics</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Economist</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Consultation completed</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Mila Novak</v>
+      </c>
+      <c r="B45" t="str">
+        <v>+1-202-555-2029</v>
+      </c>
+      <c r="C45" t="str">
+        <v>mila@example.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Albany</v>
+      </c>
+      <c r="E45" t="str">
+        <v>SUNY Albany</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Political Science</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Policy Analyst</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Enrolled successfully</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Nate Robinson</v>
+      </c>
+      <c r="B46" t="str">
+        <v>+1-202-555-2030</v>
+      </c>
+      <c r="C46" t="str">
+        <v>nate@example.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Des Moines</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Drake</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Management</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Pending meeting</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Olga Ivanova</v>
+      </c>
+      <c r="B47" t="str">
+        <v>+1-202-555-2031</v>
+      </c>
+      <c r="C47" t="str">
+        <v>olga@example.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Spokane</v>
+      </c>
+      <c r="E47" t="str">
+        <v>WSU</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Nursing</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Nurse</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Initial inquiry</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Peter Wang</v>
+      </c>
+      <c r="B48" t="str">
+        <v>+1-202-555-2032</v>
+      </c>
+      <c r="C48" t="str">
+        <v>peter@example.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>New Orleans</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Tulane</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Public Health</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Coordinator</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Explored syllabus</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Queenie Das</v>
+      </c>
+      <c r="B49" t="str">
+        <v>+1-202-555-2033</v>
+      </c>
+      <c r="C49" t="str">
+        <v>queenie@example.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Omaha</v>
+      </c>
+      <c r="E49" t="str">
+        <v>UNO</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Auditor</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Onboarded</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Rafael Costa</v>
+      </c>
+      <c r="B50" t="str">
+        <v>+1-202-555-2034</v>
+      </c>
+      <c r="C50" t="str">
+        <v>rafael@example.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>El Paso</v>
+      </c>
+      <c r="E50" t="str">
+        <v>UTEP</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Electrical Engineer</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Awaiting reply</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Sara Ahmed</v>
+      </c>
+      <c r="B51" t="str">
+        <v>+1-202-555-2035</v>
+      </c>
+      <c r="C51" t="str">
+        <v>sara@example.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Fresno State</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Agriculture</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Ag Specialist</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Request call back</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Preferred afternoon call</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Tom Baker</v>
+      </c>
+      <c r="B52" t="str">
+        <v>+1-202-555-2036</v>
+      </c>
+      <c r="C52" t="str">
+        <v>tom@example.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Reno</v>
+      </c>
+      <c r="E52" t="str">
+        <v>UNR</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Backend Developer</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Interested in next batch</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Waiting next intake</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Uma Kapoor</v>
+      </c>
+      <c r="B53" t="str">
+        <v>+1-202-555-2037</v>
+      </c>
+      <c r="C53" t="str">
+        <v>uma@example.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Birmingham</v>
+      </c>
+      <c r="E53" t="str">
+        <v>UAB</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Biotech</v>
+      </c>
+      <c r="G53" t="str">
         <v>Researcher</v>
       </c>
-      <c r="I16" t="str">
-        <v>Omicron Global</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="H53" t="str">
+        <v>Registration fees paid</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Payment verified</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Vikram Iyer</v>
+      </c>
+      <c r="B54" t="str">
+        <v>+1-202-555-2038</v>
+      </c>
+      <c r="C54" t="str">
+        <v>vikram@example.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Tulsa</v>
+      </c>
+      <c r="E54" t="str">
+        <v>TU</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Energy Analyst</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Requested case studies</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Will Harper</v>
+      </c>
+      <c r="B55" t="str">
+        <v>+1-202-555-2039</v>
+      </c>
+      <c r="C55" t="str">
+        <v>will@example.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Wichita</v>
+      </c>
+      <c r="E55" t="str">
+        <v>WSU</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Aviation</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Pilot</v>
+      </c>
+      <c r="H55" t="str">
         <v>Fresh</v>
       </c>
-      <c r="K16" t="str">
+      <c r="I55" t="str">
         <v>First contact</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Xenia Morales</v>
+      </c>
+      <c r="B56" t="str">
+        <v>+1-202-555-2040</v>
+      </c>
+      <c r="C56" t="str">
+        <v>xenia@example.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Baton Rouge</v>
+      </c>
+      <c r="E56" t="str">
+        <v>LSU</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Chemistry</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Lab Assistant</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Compared programs</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Yusuf Khan</v>
+      </c>
+      <c r="B57" t="str">
+        <v>+1-202-555-2041</v>
+      </c>
+      <c r="C57" t="str">
+        <v>yusuf@example.com</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Lexington</v>
+      </c>
+      <c r="E57" t="str">
+        <v>UK</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Statistics</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Statistician</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Confirmed enrollment</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Zara Patel</v>
+      </c>
+      <c r="B58" t="str">
+        <v>+1-202-555-2042</v>
+      </c>
+      <c r="C58" t="str">
+        <v>zara@example.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Lincoln</v>
+      </c>
+      <c r="E58" t="str">
+        <v>UNL</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Counselor</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Pending confirmation</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Aiden Clark</v>
+      </c>
+      <c r="B59" t="str">
+        <v>+1-202-555-2043</v>
+      </c>
+      <c r="C59" t="str">
+        <v>aiden@example.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Plano</v>
+      </c>
+      <c r="E59" t="str">
+        <v>UTD</v>
+      </c>
+      <c r="F59" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Systems Admin</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Did not pick</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Missed call</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Bella Rossi</v>
+      </c>
+      <c r="B60" t="str">
+        <v>+1-202-555-2044</v>
+      </c>
+      <c r="C60" t="str">
+        <v>bella@example.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Chandler</v>
+      </c>
+      <c r="E60" t="str">
+        <v>ASU</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Design</v>
+      </c>
+      <c r="G60" t="str">
+        <v>UI Designer</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Junk/not interested</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Not a fit</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Carlos Ortega</v>
+      </c>
+      <c r="B61" t="str">
+        <v>+1-202-555-2045</v>
+      </c>
+      <c r="C61" t="str">
+        <v>carlos@example.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Glendale</v>
+      </c>
+      <c r="E61" t="str">
+        <v>NAU</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Business</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Sales Lead</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I61" t="str">
+        <v>New inquiry</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Diana Prince</v>
+      </c>
+      <c r="B62" t="str">
+        <v>+1-202-555-2046</v>
+      </c>
+      <c r="C62" t="str">
+        <v>diana@example.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Irving</v>
+      </c>
+      <c r="E62" t="str">
+        <v>UT Arlington</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Management</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Operations Lead</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Requested curriculum</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ethan Young</v>
+      </c>
+      <c r="B63" t="str">
+        <v>+1-202-555-2047</v>
+      </c>
+      <c r="C63" t="str">
+        <v>ethan@example.com</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Hialeah</v>
+      </c>
+      <c r="E63" t="str">
+        <v>FIU</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Finance</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Trader</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Explained fees</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Farah Ali</v>
+      </c>
+      <c r="B64" t="str">
+        <v>+1-202-555-2048</v>
+      </c>
+      <c r="C64" t="str">
+        <v>farah@example.com</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Garland</v>
+      </c>
+      <c r="E64" t="str">
+        <v>UNT</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Content Strategist</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Orientation scheduled</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>George King</v>
+      </c>
+      <c r="B65" t="str">
+        <v>+1-202-555-2049</v>
+      </c>
+      <c r="C65" t="str">
+        <v>george@example.com</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Scottsdale</v>
+      </c>
+      <c r="E65" t="str">
+        <v>ASU</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Full-stack Dev</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Awaiting email</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Hana Suzuki</v>
+      </c>
+      <c r="B66" t="str">
+        <v>+1-202-555-2050</v>
+      </c>
+      <c r="C66" t="str">
+        <v>hana@example.com</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Lubbock</v>
+      </c>
+      <c r="E66" t="str">
+        <v>TTU</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Biology</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Lab Tech</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Request call back</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Prefers morning</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Ian McKay</v>
+      </c>
+      <c r="B67" t="str">
+        <v>+1-202-555-2051</v>
+      </c>
+      <c r="C67" t="str">
+        <v>ian@example.com</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Chula Vista</v>
+      </c>
+      <c r="E67" t="str">
+        <v>SDSU</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Data Science</v>
+      </c>
+      <c r="G67" t="str">
+        <v>ML Engineer</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Interested in next batch</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Waiting dates</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Jia Huang</v>
+      </c>
+      <c r="B68" t="str">
+        <v>+1-202-555-2052</v>
+      </c>
+      <c r="C68" t="str">
+        <v>jia@example.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Norfolk</v>
+      </c>
+      <c r="E68" t="str">
+        <v>ODU</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Cybersecurity</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Security Analyst</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Registration fees paid</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Paid online</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Kabir Singh</v>
+      </c>
+      <c r="B69" t="str">
+        <v>+1-202-555-2053</v>
+      </c>
+      <c r="C69" t="str">
+        <v>kabir@example.com</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Chesapeake</v>
+      </c>
+      <c r="E69" t="str">
+        <v>NSU</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Economics</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Research Associate</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Needs scholarship info</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Lara Croft</v>
+      </c>
+      <c r="B70" t="str">
+        <v>+1-202-555-2054</v>
+      </c>
+      <c r="C70" t="str">
+        <v>lara@example.com</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Durham</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Duke</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Anthropology</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Field Researcher</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Fresh</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Initial interest</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Mohammad Rahman</v>
+      </c>
+      <c r="B71" t="str">
+        <v>+1-202-555-2055</v>
+      </c>
+      <c r="C71" t="str">
+        <v>mohammad@example.com</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Fort Wayne</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Purdue Fort Wayne</v>
+      </c>
+      <c r="F71" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Network Engineer</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Counselled</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Compared tracks</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Nina Lopez</v>
+      </c>
+      <c r="B72" t="str">
+        <v>+1-202-555-2056</v>
+      </c>
+      <c r="C72" t="str">
+        <v>nina@example.com</v>
+      </c>
+      <c r="D72" t="str">
+        <v>St. Paul</v>
+      </c>
+      <c r="E72" t="str">
+        <v>UMN</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Case Worker</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Enrolled</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Welcome email sent</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Owen Parker</v>
+      </c>
+      <c r="B73" t="str">
+        <v>+1-202-555-2057</v>
+      </c>
+      <c r="C73" t="str">
+        <v>owen@example.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Aurora</v>
+      </c>
+      <c r="E73" t="str">
+        <v>UC Denver</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Architecture</v>
+      </c>
+      <c r="G73" t="str">
+        <v>CAD Specialist</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Buffer fresh</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Pending confirmation</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Pari Mehta</v>
+      </c>
+      <c r="B74" t="str">
+        <v>+1-202-555-2058</v>
+      </c>
+      <c r="C74" t="str">
+        <v>pari@example.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Jersey City</v>
+      </c>
+      <c r="E74" t="str">
+        <v>NJIT</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Process Engineer</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Did not pick</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Voicemail left</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Rohan Desai</v>
+      </c>
+      <c r="B75" t="str">
+        <v>+1-202-555-2059</v>
+      </c>
+      <c r="C75" t="str">
+        <v>rohan@example.com</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Irvine</v>
+      </c>
+      <c r="E75" t="str">
+        <v>UCI</v>
+      </c>
+      <c r="F75" t="str">
+        <v>MBA</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Product Manager</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Junk/not interested</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Exploring other options</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I75"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/scripts/sample_leads.xlsx
+++ b/backend/scripts/sample_leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samth\Desktop\DD\CRM\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB598041-B54C-4042-9426-DF07FB8B10DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82DD6F-CEF3-46FF-9007-0504F2160408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="546">
   <si>
     <t>Name</t>
   </si>
@@ -1652,6 +1652,12 @@
   </si>
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>roASDan@example.com</t>
   </si>
 </sst>
 </file>
@@ -2039,18 +2045,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>240</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -3036,7 +3042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>259</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>279</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>286</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>292</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>298</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>304</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>311</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>318</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>330</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>351</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>359</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>366</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>374</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>381</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>388</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>396</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>402</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>409</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>423</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>430</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>436</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>442</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>449</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>455</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>468</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>475</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>482</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>490</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>505</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>512</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>518</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>531</v>
       </c>
@@ -4251,12 +4257,36 @@
         <v>97</v>
       </c>
       <c r="I76" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>544</v>
+      </c>
+      <c r="B77">
+        <v>12312312312</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" t="s">
+        <v>536</v>
+      </c>
+      <c r="H77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{496A9E20-8CC3-4637-84D1-408C60DDC2B5}"/>
+    <hyperlink ref="C77" r:id="rId2" xr:uid="{6E4BA5BC-6094-4259-BA93-3396A60099B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/backend/scripts/sample_leads.xlsx
+++ b/backend/scripts/sample_leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samth\Desktop\DD\CRM\backend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82DD6F-CEF3-46FF-9007-0504F2160408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC222A90-42E9-4090-8EF5-5911549064B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="538">
   <si>
     <t>Name</t>
   </si>
@@ -1634,48 +1634,16 @@
   </si>
   <si>
     <t>Exploring other options</t>
-  </si>
-  <si>
-    <t>sad@gmail.com</t>
-  </si>
-  <si>
-    <t>sfa</t>
-  </si>
-  <si>
-    <t>asfd</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>afd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>roASDan@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1698,16 +1666,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2045,23 +2010,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2070,16 +2032,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -2087,2210 +2049,2154 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2">
-        <v>9260986219</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>538</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>540</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>541</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>543</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G39" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D43" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H43" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D45" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E45" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>341</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E48" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F48" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D49" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G49" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G50" t="s">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="I50" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D51" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="I51" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F52" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G52" t="s">
-        <v>372</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E53" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="G53" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I53" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E54" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F54" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="I54" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D55" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F55" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="G55" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="I55" t="s">
-        <v>395</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G56" t="s">
-        <v>401</v>
+        <v>284</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="I56" t="s">
-        <v>135</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E57" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>415</v>
       </c>
       <c r="I57" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D58" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E58" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G58" t="s">
-        <v>415</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>422</v>
       </c>
       <c r="I58" t="s">
-        <v>416</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s">
-        <v>418</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E59" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>427</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="I59" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>424</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E60" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G60" t="s">
-        <v>428</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
       <c r="G61" t="s">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="I61" t="s">
-        <v>435</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s">
-        <v>437</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D62" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E62" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>446</v>
       </c>
       <c r="G62" t="s">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="I62" t="s">
-        <v>106</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E63" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
       <c r="I63" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="G64" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>460</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="G65" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>466</v>
       </c>
       <c r="I65" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>469</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>472</v>
       </c>
       <c r="G66" t="s">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="I66" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E67" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="G67" t="s">
-        <v>473</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="I67" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s">
-        <v>476</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D68" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E68" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="G68" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>488</v>
       </c>
       <c r="I68" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E69" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F69" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G69" t="s">
-        <v>488</v>
+        <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>495</v>
       </c>
       <c r="I69" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B70" t="s">
-        <v>491</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E70" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="G70" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>503</v>
       </c>
       <c r="I70" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
-        <v>498</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D71" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E71" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F71" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G71" t="s">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
       <c r="I71" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s">
-        <v>506</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D72" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E72" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="G72" t="s">
-        <v>510</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>516</v>
       </c>
       <c r="I72" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D73" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>519</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>522</v>
       </c>
       <c r="G73" t="s">
-        <v>516</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>523</v>
       </c>
       <c r="I73" t="s">
-        <v>517</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s">
-        <v>519</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D74" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E74" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>528</v>
       </c>
       <c r="G74" t="s">
-        <v>523</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="I74" t="s">
-        <v>190</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B75" t="s">
-        <v>525</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D75" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="E75" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
-        <v>529</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>536</v>
       </c>
       <c r="I75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>531</v>
-      </c>
-      <c r="B76" t="s">
-        <v>532</v>
-      </c>
-      <c r="C76" t="s">
-        <v>533</v>
-      </c>
-      <c r="D76" t="s">
-        <v>534</v>
-      </c>
-      <c r="E76" t="s">
-        <v>535</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>536</v>
-      </c>
-      <c r="H76" t="s">
-        <v>97</v>
-      </c>
-      <c r="I76" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>544</v>
-      </c>
-      <c r="B77">
-        <v>12312312312</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D77" t="s">
-        <v>534</v>
-      </c>
-      <c r="G77" t="s">
-        <v>536</v>
-      </c>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I77" t="s">
-        <v>537</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{496A9E20-8CC3-4637-84D1-408C60DDC2B5}"/>
-    <hyperlink ref="C77" r:id="rId2" xr:uid="{6E4BA5BC-6094-4259-BA93-3396A60099B2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:I76 A1:I1" numberStoredAsText="1"/>
+    <ignoredError sqref="F1:H75 A1:A75 C1:D75 I1:I75" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>